--- a/SLA_Empathy_pre-task_FINAL.xlsx
+++ b/SLA_Empathy_pre-task_FINAL.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="460" yWindow="460" windowWidth="28340" windowHeight="16520"/>
+    <workbookView xWindow="460" yWindow="460" windowWidth="28340" windowHeight="16500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -957,7 +957,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -974,6 +974,18 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1078,8 +1090,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1162,7 +1192,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="19">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1378,9 +1426,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CX1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="CO14" sqref="CO14"/>
+      <selection pane="bottomLeft" activeCell="AQ3" sqref="AQ3:AQ34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/SLA_Empathy_pre-task_FINAL.xlsx
+++ b/SLA_Empathy_pre-task_FINAL.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="460" yWindow="460" windowWidth="28340" windowHeight="16500"/>
+    <workbookView xWindow="7380" yWindow="460" windowWidth="28340" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet0!$A$2:$CX$26</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -1426,9 +1426,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CX1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AQ3" sqref="AQ3:AQ34"/>
+      <selection pane="bottomLeft" activeCell="AV3" sqref="AV3:AV34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
